--- a/templates/traffic_settlement.xlsx
+++ b/templates/traffic_settlement.xlsx
@@ -104,7 +104,8 @@
     <t>地市（县）</t>
   </si>
   <si>
-    <t>通道容量</t>
+    <t>通道容量（G）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -215,15 +216,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -566,32 +572,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="1" max="2" width="18.625" style="3"/>
+    <col min="3" max="3" width="28.625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="18.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+    <row r="1" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="51.75" customHeight="1">
+    <row r="3" spans="1:4" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
